--- a/biology/Biologie cellulaire et moléculaire/Double_hybride/Double_hybride.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Double_hybride/Double_hybride.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La technique de double hybride est une technique de biologie moléculaire permettant de détecter une interaction physique entre deux protéines.
 La technique est la suivante : on utilise une protéine test (telle Gal4) dont une des extrémités peut se fixer à une séquence activatrice, et l'autre activer la transcription du gène rapporteur (comme lacZ) mis sous contrôle de cette séquence. Par génie génétique, on synthétise ensuite deux protéines hybrides : une constituée de l'une des extrémités de la protéine test fusionnée avec la première protéine d'intérêt, l'autre formée de l'autre extrémité fusionnée à l'autre protéine d'intérêt. Si les deux protéines interagissent physiquement, ces deux hybrides vont se rapprocher et permettre la transcription du gène rapporteur. 
